--- a/for_xlsx/magazin.xlsx
+++ b/for_xlsx/magazin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitalii.martynenko\simpleAsk\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitalii.martynenko\simpleAsk\for_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="24000" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="24000" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="к" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Аврамчук Микола Юрійович</author>
+  </authors>
+  <commentList>
+    <comment ref="BB3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Більше 5 квартир</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t xml:space="preserve">                  2. Журнал   реєстрації  ПВД  , пред’явленої до прийомки ВТН</t>
   </si>
@@ -202,6 +227,15 @@
   <si>
     <t>сталь</t>
   </si>
+  <si>
+    <t>Багатоквартирні будинки</t>
+  </si>
+  <si>
+    <t>Кількість квартир</t>
+  </si>
+  <si>
+    <t>Поверховість</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +266,25 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -460,11 +513,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,128 +572,152 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -900,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,36 +1030,36 @@
     <col min="48" max="53" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
       <c r="AD1" s="4"/>
@@ -995,7 +1087,7 @@
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
     </row>
-    <row r="2" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1050,425 +1142,496 @@
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
     </row>
-    <row r="3" spans="1:53" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="44" t="s">
+      <c r="N3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="44" t="s">
+      <c r="O3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="35" t="s">
+      <c r="S3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="26" t="s">
+      <c r="T3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="26" t="s">
+      <c r="W3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="26" t="s">
+      <c r="X3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="29" t="s">
+      <c r="AA3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24" t="s">
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24" t="s">
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="47"/>
+      <c r="AS3" s="47"/>
+      <c r="AT3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="15" t="s">
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="15" t="s">
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="BA3" s="16"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC3" s="54"/>
     </row>
-    <row r="4" spans="1:53" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="16" t="s">
+    <row r="4" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24" t="s">
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="47"/>
+      <c r="AF4" s="47"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24" t="s">
+      <c r="AI4" s="47"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="47"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24" t="s">
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="22" t="s">
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="AU4" s="22" t="s">
+      <c r="AU4" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AV4" s="22" t="s">
+      <c r="AV4" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="22" t="s">
+      <c r="AW4" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="AX4" s="22" t="s">
+      <c r="AX4" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="AY4" s="22" t="s">
+      <c r="AY4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AZ4" s="22" t="s">
+      <c r="AZ4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="BA4" s="22" t="s">
+      <c r="BA4" s="48" t="s">
         <v>42</v>
       </c>
+      <c r="BB4" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC4" s="55" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="16" t="s">
+    <row r="5" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="15" t="s">
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="24" t="s">
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="46"/>
+      <c r="AH5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24" t="s">
+      <c r="AI5" s="47"/>
+      <c r="AJ5" s="47"/>
+      <c r="AK5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24" t="s">
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="47"/>
+      <c r="AN5" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="17" t="s">
+      <c r="AO5" s="47"/>
+      <c r="AP5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AQ5" s="22" t="s">
+      <c r="AQ5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AR5" s="17" t="s">
+      <c r="AR5" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AS5" s="22" t="s">
+      <c r="AS5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AT5" s="25"/>
-      <c r="AU5" s="25"/>
-      <c r="AV5" s="25"/>
-      <c r="AW5" s="23"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
+      <c r="AT5" s="41"/>
+      <c r="AU5" s="41"/>
+      <c r="AV5" s="41"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="55"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="19" t="s">
+    <row r="6" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="17" t="s">
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="15" t="s">
+      <c r="AE6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="20" t="s">
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AH6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="17" t="s">
+      <c r="AI6" s="46"/>
+      <c r="AJ6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AK6" s="15" t="s">
+      <c r="AK6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="17" t="s">
+      <c r="AL6" s="46"/>
+      <c r="AM6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AN6" s="17" t="s">
+      <c r="AN6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="AO6" s="17" t="s">
+      <c r="AO6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="AP6" s="25"/>
-      <c r="AQ6" s="25"/>
-      <c r="AR6" s="25"/>
-      <c r="AS6" s="25"/>
-      <c r="AT6" s="25"/>
-      <c r="AU6" s="25"/>
-      <c r="AV6" s="25"/>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="23"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
     </row>
-    <row r="7" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="31"/>
+    <row r="7" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="36"/>
       <c r="AB7" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" s="18"/>
+      <c r="AD7" s="42"/>
       <c r="AE7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AF7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AG7" s="21"/>
+      <c r="AG7" s="53"/>
       <c r="AH7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ7" s="18"/>
+      <c r="AJ7" s="42"/>
       <c r="AK7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AM7" s="18"/>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18"/>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="AY7" s="18"/>
-      <c r="AZ7" s="18"/>
-      <c r="BA7" s="18"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="55"/>
+      <c r="BC7" s="55"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="67">
+    <mergeCell ref="BB3:BC3"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AP5:AP7"/>
+    <mergeCell ref="AQ5:AQ7"/>
+    <mergeCell ref="AR5:AR7"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="AU4:AU7"/>
+    <mergeCell ref="AV4:AV7"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="AB3:AO3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AT3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="AH4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AA3:AA7"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="R3:R7"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="T3:T7"/>
+    <mergeCell ref="U3:U7"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="X3:X7"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="Z3:Z7"/>
     <mergeCell ref="O3:O7"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A3:A7"/>
@@ -1485,56 +1648,14 @@
     <mergeCell ref="L3:L7"/>
     <mergeCell ref="M3:M7"/>
     <mergeCell ref="N3:N7"/>
-    <mergeCell ref="AA3:AA7"/>
-    <mergeCell ref="P3:P7"/>
-    <mergeCell ref="Q3:Q7"/>
-    <mergeCell ref="R3:R7"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="T3:T7"/>
-    <mergeCell ref="U3:U7"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="W3:W7"/>
-    <mergeCell ref="X3:X7"/>
-    <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="Z3:Z7"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AB3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AP5:AP7"/>
-    <mergeCell ref="AQ5:AQ7"/>
-    <mergeCell ref="AR5:AR7"/>
-    <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AJ7"/>
   </mergeCells>
+  <conditionalFormatting sqref="BB8:BC8">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(BB8))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/for_xlsx/magazin.xlsx
+++ b/for_xlsx/magazin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitalii.martynenko\simpleAsk\for_xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python-app\simpleAsk\for_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="24000" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="2700" windowWidth="24000" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="к" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>Аврамчук Микола Юрійович</author>
   </authors>
   <commentList>
-    <comment ref="BB3" authorId="0" shapeId="0">
+    <comment ref="BE3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t xml:space="preserve">                  2. Журнал   реєстрації  ПВД  , пред’явленої до прийомки ВТН</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>№ заявки</t>
-  </si>
-  <si>
-    <t>Дата заявки</t>
-  </si>
-  <si>
-    <t>Договір, дата</t>
   </si>
   <si>
     <t>Сума оплати, дата</t>
@@ -235,6 +229,21 @@
   </si>
   <si>
     <t>Поверховість</t>
+  </si>
+  <si>
+    <t>№ реєстрації в Держпраці</t>
+  </si>
+  <si>
+    <t>Дата реєстрації в Держпраці</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Договір (документообіг) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ Акту в DOK та дата створення </t>
+  </si>
+  <si>
+    <t>Дата заявки</t>
   </si>
 </sst>
 </file>
@@ -294,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -528,11 +537,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -572,13 +633,91 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,24 +732,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -627,6 +748,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,69 +777,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -993,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC8"/>
+  <dimension ref="A1:BF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,66 +1082,68 @@
     <col min="6" max="6" width="8.625" customWidth="1"/>
     <col min="7" max="7" width="9.375" customWidth="1"/>
     <col min="8" max="8" width="21.375" customWidth="1"/>
-    <col min="9" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="9" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="11" style="63" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.625" customWidth="1"/>
-    <col min="15" max="15" width="9.125" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1"/>
-    <col min="20" max="20" width="15.875" customWidth="1"/>
-    <col min="21" max="21" width="26" customWidth="1"/>
-    <col min="22" max="22" width="18.75" customWidth="1"/>
-    <col min="23" max="23" width="19.625" customWidth="1"/>
-    <col min="24" max="26" width="18.375" customWidth="1"/>
-    <col min="27" max="27" width="22.75" customWidth="1"/>
-    <col min="28" max="46" width="8" customWidth="1"/>
-    <col min="47" max="47" width="9.5" customWidth="1"/>
-    <col min="48" max="53" width="8" customWidth="1"/>
+    <col min="14" max="14" width="17.875" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="9.125" customWidth="1"/>
+    <col min="19" max="19" width="8.625" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="24" max="24" width="26" customWidth="1"/>
+    <col min="25" max="25" width="18.75" customWidth="1"/>
+    <col min="26" max="26" width="19.625" customWidth="1"/>
+    <col min="27" max="29" width="18.375" customWidth="1"/>
+    <col min="30" max="30" width="22.75" customWidth="1"/>
+    <col min="31" max="49" width="8" customWidth="1"/>
+    <col min="50" max="50" width="9.5" customWidth="1"/>
+    <col min="51" max="56" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
       <c r="AE1" s="4"/>
       <c r="AF1" s="4"/>
-      <c r="AG1" s="5"/>
+      <c r="AG1" s="4"/>
       <c r="AH1" s="4"/>
       <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="AJ1" s="5"/>
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
@@ -1086,8 +1161,11 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
     </row>
-    <row r="2" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1098,19 +1176,19 @@
       <c r="H2" s="10"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
@@ -1120,10 +1198,10 @@
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
-      <c r="AG2" s="5"/>
+      <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AJ2" s="5"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1141,499 +1219,476 @@
       <c r="AY2" s="4"/>
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:58" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="P3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="Q3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="R3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="S3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="T3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="U3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="40" t="s">
+      <c r="V3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="40" t="s">
+      <c r="W3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="X3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="Y3" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="Z3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="AA3" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="AB3" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="AC3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="AD3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="AE3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="46" t="s">
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="47"/>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47" t="s">
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="47"/>
-      <c r="AS3" s="47"/>
-      <c r="AT3" s="47" t="s">
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="29"/>
+      <c r="BC3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="49" t="s">
+      <c r="BD3" s="29"/>
+      <c r="BE3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF3" s="19"/>
+    </row>
+    <row r="4" spans="1:58" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="49" t="s">
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="54" t="s">
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA4" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="BC3" s="54"/>
     </row>
-    <row r="4" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV4" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW4" s="48" t="s">
+    <row r="5" spans="1:58" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AX4" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY4" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ4" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA4" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB4" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC4" s="55" t="s">
-        <v>54</v>
-      </c>
+      <c r="AU5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="27"/>
+      <c r="BE5" s="21"/>
+      <c r="BF5" s="24"/>
     </row>
-    <row r="5" spans="1:55" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="46"/>
-      <c r="AH5" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="47"/>
-      <c r="AK5" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL5" s="47"/>
-      <c r="AM5" s="47"/>
-      <c r="AN5" s="47" t="s">
+    <row r="6" spans="1:58" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="40" t="s">
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="AQ5" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR5" s="40" t="s">
+      <c r="AH6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AS5" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="55"/>
+      <c r="AK6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN6" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="24"/>
     </row>
-    <row r="6" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="50" t="s">
+    <row r="7" spans="1:58" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="59"/>
+      <c r="AE7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="40" t="s">
+      <c r="AF7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AE6" s="49" t="s">
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="52" t="s">
+      <c r="AI7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH6" s="49" t="s">
+      <c r="AJ7" s="40"/>
+      <c r="AK7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="46"/>
-      <c r="AJ6" s="40" t="s">
+      <c r="AL7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AK6" s="49" t="s">
+      <c r="AM7" s="35"/>
+      <c r="AN7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="40" t="s">
+      <c r="AO7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AN6" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO6" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="55"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="28"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="25"/>
     </row>
-    <row r="7" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ7" s="42"/>
-      <c r="AK7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="42"/>
-      <c r="BA7" s="42"/>
-      <c r="BB7" s="55"/>
-      <c r="BC7" s="55"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="BB8" s="56"/>
-      <c r="BC8" s="56"/>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="BB3:BC3"/>
-    <mergeCell ref="BB4:BB7"/>
-    <mergeCell ref="BC4:BC7"/>
-    <mergeCell ref="BA4:BA7"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AP5:AP7"/>
-    <mergeCell ref="AQ5:AQ7"/>
-    <mergeCell ref="AR5:AR7"/>
-    <mergeCell ref="AS5:AS7"/>
-    <mergeCell ref="AU4:AU7"/>
-    <mergeCell ref="AV4:AV7"/>
-    <mergeCell ref="AW4:AW7"/>
-    <mergeCell ref="AX4:AX7"/>
-    <mergeCell ref="AY4:AY7"/>
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="AB3:AO3"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AT3:AV3"/>
-    <mergeCell ref="AW3:AY3"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="AH4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AA3:AA7"/>
+  <mergeCells count="70">
+    <mergeCell ref="O3:O7"/>
     <mergeCell ref="P3:P7"/>
-    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="L3:L7"/>
     <mergeCell ref="R3:R7"/>
-    <mergeCell ref="S3:S7"/>
-    <mergeCell ref="T3:T7"/>
-    <mergeCell ref="U3:U7"/>
-    <mergeCell ref="V3:V7"/>
-    <mergeCell ref="W3:W7"/>
-    <mergeCell ref="X3:X7"/>
-    <mergeCell ref="Y3:Y7"/>
-    <mergeCell ref="Z3:Z7"/>
-    <mergeCell ref="O3:O7"/>
-    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A1:AD1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
@@ -1643,15 +1698,65 @@
     <mergeCell ref="G3:G7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="L3:L7"/>
     <mergeCell ref="M3:M7"/>
     <mergeCell ref="N3:N7"/>
+    <mergeCell ref="Q3:Q7"/>
+    <mergeCell ref="AD3:AD7"/>
+    <mergeCell ref="S3:S7"/>
+    <mergeCell ref="T3:T7"/>
+    <mergeCell ref="U3:U7"/>
+    <mergeCell ref="V3:V7"/>
+    <mergeCell ref="W3:W7"/>
+    <mergeCell ref="X3:X7"/>
+    <mergeCell ref="Y3:Y7"/>
+    <mergeCell ref="AR6:AR7"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="Z3:Z7"/>
+    <mergeCell ref="AA3:AA7"/>
+    <mergeCell ref="AB3:AB7"/>
+    <mergeCell ref="AC3:AC7"/>
+    <mergeCell ref="AZ4:AZ7"/>
+    <mergeCell ref="BA4:BA7"/>
+    <mergeCell ref="BB4:BB7"/>
+    <mergeCell ref="BC4:BC7"/>
+    <mergeCell ref="AE3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AY3"/>
+    <mergeCell ref="AZ3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="AE4:AJ4"/>
+    <mergeCell ref="AK4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AW4:AW7"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BE4:BE7"/>
+    <mergeCell ref="BF4:BF7"/>
+    <mergeCell ref="BD4:BD7"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AS5:AS7"/>
+    <mergeCell ref="AT5:AT7"/>
+    <mergeCell ref="AU5:AU7"/>
+    <mergeCell ref="AV5:AV7"/>
+    <mergeCell ref="AX4:AX7"/>
+    <mergeCell ref="AY4:AY7"/>
   </mergeCells>
-  <conditionalFormatting sqref="BB8:BC8">
+  <conditionalFormatting sqref="BE8:BF8">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(BB8))=0</formula>
+      <formula>LEN(TRIM(BE8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
